--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3390.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3390.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.591125587397141</v>
+        <v>1.331717967987061</v>
       </c>
       <c r="B1">
-        <v>2.496187486291194</v>
+        <v>5.509922981262207</v>
       </c>
       <c r="C1">
-        <v>2.777722380168155</v>
+        <v>4.310285091400146</v>
       </c>
       <c r="D1">
-        <v>3.298218866666202</v>
+        <v>1.879854083061218</v>
       </c>
       <c r="E1">
-        <v>3.195945645448181</v>
+        <v>1.298789858818054</v>
       </c>
     </row>
   </sheetData>
